--- a/Testcase-TransparenSee.xlsx
+++ b/Testcase-TransparenSee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAC\DACAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahuln\Documents\GitHub\DACAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA49680-4AA6-49B9-B2FA-6A990988E555}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363691AA-8AF2-4B2E-9355-79531D0C6C32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{66D78547-9A11-428C-B5AF-16FD7C7547B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1006">
   <si>
     <t> </t>
   </si>
@@ -3059,6 +3059,9 @@
   </si>
   <si>
     <t>ScreenCapture needed</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -3415,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD74DF37-6EE2-4904-B097-EF831BBF89C5}">
   <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,6 +3559,9 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
+      <c r="E15" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -6645,7 +6651,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C431" s="1" t="s">
         <v>571</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C638" s="1" t="s">
         <v>856</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C640" s="1" t="s">
         <v>859</v>
       </c>
@@ -8280,7 +8286,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C641" s="1" t="s">
         <v>861</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C642" s="1" t="s">
         <v>863</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C644" s="1" t="s">
         <v>867</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C646" s="1" t="s">
         <v>869</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C648" s="1" t="s">
         <v>871</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C653" s="1" t="s">
         <v>876</v>
       </c>
@@ -8408,7 +8414,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="657" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C657" s="1" t="s">
         <v>883</v>
       </c>
@@ -8424,7 +8430,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C659" s="1" t="s">
         <v>885</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C660" s="1" t="s">
         <v>887</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="661" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C661" s="1" t="s">
         <v>889</v>
       </c>
@@ -8456,7 +8462,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="663" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C663" s="1" t="s">
         <v>892</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="665" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C665" s="1" t="s">
         <v>893</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="667" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C667" s="1" t="s">
         <v>894</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="672" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C672" s="1" t="s">
         <v>899</v>
       </c>
